--- a/chiikawa_birthday.xlsx
+++ b/chiikawa_birthday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Chen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CEA840-3F8A-4D1E-94E8-3C7EC9923369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13934E7-3B69-418D-92CA-8229CC25836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,15 +71,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>栗子頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巨蟹座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>處女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗子饅頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>44034</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>44069</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>43859</v>
